--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel10/field_64ha_100ha_14%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel10/field_64ha_100ha_14%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -3152,28 +3152,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4392.589631455834</v>
+        <v>4832.970592365168</v>
       </c>
       <c r="AB2" t="n">
-        <v>6010.134921135928</v>
+        <v>6612.683580088934</v>
       </c>
       <c r="AC2" t="n">
-        <v>5436.536079539828</v>
+        <v>5981.57834016469</v>
       </c>
       <c r="AD2" t="n">
-        <v>4392589.631455834</v>
+        <v>4832970.592365168</v>
       </c>
       <c r="AE2" t="n">
-        <v>6010134.921135928</v>
+        <v>6612683.580088934</v>
       </c>
       <c r="AF2" t="n">
         <v>1.812907392276974e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>87</v>
+        <v>86.56901041666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>5436536.079539828</v>
+        <v>5981578.34016469</v>
       </c>
     </row>
     <row r="3">
@@ -3258,28 +3258,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2154.245137062253</v>
+        <v>2428.289567213229</v>
       </c>
       <c r="AB3" t="n">
-        <v>2947.533235116534</v>
+        <v>3322.49291443628</v>
       </c>
       <c r="AC3" t="n">
-        <v>2666.224800045889</v>
+        <v>3005.398853830448</v>
       </c>
       <c r="AD3" t="n">
-        <v>2154245.137062252</v>
+        <v>2428289.567213228</v>
       </c>
       <c r="AE3" t="n">
-        <v>2947533.235116534</v>
+        <v>3322492.91443628</v>
       </c>
       <c r="AF3" t="n">
         <v>2.86545442348459e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>55</v>
+        <v>54.77213541666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>2666224.800045889</v>
+        <v>3005398.853830448</v>
       </c>
     </row>
     <row r="4">
@@ -3364,28 +3364,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1752.497866352516</v>
+        <v>1997.142567273663</v>
       </c>
       <c r="AB4" t="n">
-        <v>2397.844895492775</v>
+        <v>2732.578568255564</v>
       </c>
       <c r="AC4" t="n">
-        <v>2168.997944063392</v>
+        <v>2471.78510489936</v>
       </c>
       <c r="AD4" t="n">
-        <v>1752497.866352516</v>
+        <v>1997142.567273663</v>
       </c>
       <c r="AE4" t="n">
-        <v>2397844.895492775</v>
+        <v>2732578.568255564</v>
       </c>
       <c r="AF4" t="n">
         <v>3.274081821078935e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>48</v>
+        <v>47.93619791666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>2168997.944063392</v>
+        <v>2471785.10489936</v>
       </c>
     </row>
     <row r="5">
@@ -3470,28 +3470,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1577.030594492246</v>
+        <v>1811.852608724264</v>
       </c>
       <c r="AB5" t="n">
-        <v>2157.762833063857</v>
+        <v>2479.056672552226</v>
       </c>
       <c r="AC5" t="n">
-        <v>1951.828976715398</v>
+        <v>2242.458983101734</v>
       </c>
       <c r="AD5" t="n">
-        <v>1577030.594492246</v>
+        <v>1811852.608724264</v>
       </c>
       <c r="AE5" t="n">
-        <v>2157762.833063857</v>
+        <v>2479056.672552226</v>
       </c>
       <c r="AF5" t="n">
         <v>3.492498589350603e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>45</v>
+        <v>44.94140625</v>
       </c>
       <c r="AH5" t="n">
-        <v>1951828.976715398</v>
+        <v>2242458.983101734</v>
       </c>
     </row>
     <row r="6">
@@ -3576,28 +3576,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1479.005014681631</v>
+        <v>1694.250997402809</v>
       </c>
       <c r="AB6" t="n">
-        <v>2023.639910183605</v>
+        <v>2318.148959725286</v>
       </c>
       <c r="AC6" t="n">
-        <v>1830.506557352133</v>
+        <v>2096.908076551603</v>
       </c>
       <c r="AD6" t="n">
-        <v>1479005.014681631</v>
+        <v>1694250.997402809</v>
       </c>
       <c r="AE6" t="n">
-        <v>2023639.910183605</v>
+        <v>2318148.959725286</v>
       </c>
       <c r="AF6" t="n">
         <v>3.629430956214076e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>44</v>
+        <v>43.24869791666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>1830506.557352133</v>
+        <v>2096908.076551603</v>
       </c>
     </row>
     <row r="7">
@@ -3682,28 +3682,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1403.390382280085</v>
+        <v>1608.882009149696</v>
       </c>
       <c r="AB7" t="n">
-        <v>1920.180634249663</v>
+        <v>2201.343343783421</v>
       </c>
       <c r="AC7" t="n">
-        <v>1736.921289507321</v>
+        <v>1991.250224657518</v>
       </c>
       <c r="AD7" t="n">
-        <v>1403390.382280085</v>
+        <v>1608882.009149696</v>
       </c>
       <c r="AE7" t="n">
-        <v>1920180.634249663</v>
+        <v>2201343.343783421</v>
       </c>
       <c r="AF7" t="n">
         <v>3.723692497488052e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>43</v>
+        <v>42.14843749999999</v>
       </c>
       <c r="AH7" t="n">
-        <v>1736921.289507321</v>
+        <v>1991250.224657518</v>
       </c>
     </row>
     <row r="8">
@@ -3788,28 +3788,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1339.647327665705</v>
+        <v>1545.104789116535</v>
       </c>
       <c r="AB8" t="n">
-        <v>1832.964574781171</v>
+        <v>2114.08053768168</v>
       </c>
       <c r="AC8" t="n">
-        <v>1658.029008345993</v>
+        <v>1912.31565829601</v>
       </c>
       <c r="AD8" t="n">
-        <v>1339647.327665705</v>
+        <v>1545104.789116535</v>
       </c>
       <c r="AE8" t="n">
-        <v>1832964.574781171</v>
+        <v>2114080.53768168</v>
       </c>
       <c r="AF8" t="n">
         <v>3.794810540137215e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>42</v>
+        <v>41.36067708333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>1658029.008345993</v>
+        <v>1912315.65829601</v>
       </c>
     </row>
     <row r="9">
@@ -3894,28 +3894,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1286.38826958913</v>
+        <v>1491.913050847665</v>
       </c>
       <c r="AB9" t="n">
-        <v>1760.093181896987</v>
+        <v>2041.301254728338</v>
       </c>
       <c r="AC9" t="n">
-        <v>1592.112358923034</v>
+        <v>1846.48232796137</v>
       </c>
       <c r="AD9" t="n">
-        <v>1286388.269589131</v>
+        <v>1491913.050847665</v>
       </c>
       <c r="AE9" t="n">
-        <v>1760093.181896987</v>
+        <v>2041301.254728338</v>
       </c>
       <c r="AF9" t="n">
         <v>3.846642333932367e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>41</v>
+        <v>40.80078125</v>
       </c>
       <c r="AH9" t="n">
-        <v>1592112.358923034</v>
+        <v>1846482.32796137</v>
       </c>
     </row>
     <row r="10">
@@ -4000,28 +4000,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1282.245073116288</v>
+        <v>1487.769854374822</v>
       </c>
       <c r="AB10" t="n">
-        <v>1754.424277697915</v>
+        <v>2035.632350529266</v>
       </c>
       <c r="AC10" t="n">
-        <v>1586.984486984364</v>
+        <v>1841.3544560227</v>
       </c>
       <c r="AD10" t="n">
-        <v>1282245.073116288</v>
+        <v>1487769.854374822</v>
       </c>
       <c r="AE10" t="n">
-        <v>1754424.277697915</v>
+        <v>2035632.350529267</v>
       </c>
       <c r="AF10" t="n">
         <v>3.852669286699246e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>41</v>
+        <v>40.73567708333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>1586984.486984364</v>
+        <v>1841354.4560227</v>
       </c>
     </row>
     <row r="11">
@@ -4106,28 +4106,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1285.429813865963</v>
+        <v>1490.954595124497</v>
       </c>
       <c r="AB11" t="n">
-        <v>1758.781780492466</v>
+        <v>2039.989853323818</v>
       </c>
       <c r="AC11" t="n">
-        <v>1590.926115827997</v>
+        <v>1845.296084866333</v>
       </c>
       <c r="AD11" t="n">
-        <v>1285429.813865963</v>
+        <v>1490954.595124497</v>
       </c>
       <c r="AE11" t="n">
-        <v>1758781.780492466</v>
+        <v>2039989.853323818</v>
       </c>
       <c r="AF11" t="n">
         <v>3.853151442920597e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>41</v>
+        <v>40.73567708333334</v>
       </c>
       <c r="AH11" t="n">
-        <v>1590926.115827997</v>
+        <v>1845296.084866333</v>
       </c>
     </row>
   </sheetData>
@@ -4403,28 +4403,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3114.126351910394</v>
+        <v>3481.884723358161</v>
       </c>
       <c r="AB2" t="n">
-        <v>4260.885060242505</v>
+        <v>4764.068288411659</v>
       </c>
       <c r="AC2" t="n">
-        <v>3854.232170282541</v>
+        <v>4309.392297377307</v>
       </c>
       <c r="AD2" t="n">
-        <v>3114126.351910394</v>
+        <v>3481884.723358161</v>
       </c>
       <c r="AE2" t="n">
-        <v>4260885.060242505</v>
+        <v>4764068.288411658</v>
       </c>
       <c r="AF2" t="n">
         <v>2.358491271306003e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>73</v>
+        <v>72.8125</v>
       </c>
       <c r="AH2" t="n">
-        <v>3854232.170282541</v>
+        <v>4309392.297377307</v>
       </c>
     </row>
     <row r="3">
@@ -4509,28 +4509,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1765.235400495027</v>
+        <v>2016.895512979057</v>
       </c>
       <c r="AB3" t="n">
-        <v>2415.272951646904</v>
+        <v>2759.605420008145</v>
       </c>
       <c r="AC3" t="n">
-        <v>2184.762690998601</v>
+        <v>2496.2325518531</v>
       </c>
       <c r="AD3" t="n">
-        <v>1765235.400495027</v>
+        <v>2016895.512979057</v>
       </c>
       <c r="AE3" t="n">
-        <v>2415272.951646904</v>
+        <v>2759605.420008145</v>
       </c>
       <c r="AF3" t="n">
         <v>3.395161743986081e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>51</v>
+        <v>50.57942708333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>2184762.690998601</v>
+        <v>2496232.5518531</v>
       </c>
     </row>
     <row r="4">
@@ -4615,28 +4615,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1483.117279106269</v>
+        <v>1705.66842433227</v>
       </c>
       <c r="AB4" t="n">
-        <v>2029.266491789697</v>
+        <v>2333.770786951501</v>
       </c>
       <c r="AC4" t="n">
-        <v>1835.596145906697</v>
+        <v>2111.038978512721</v>
       </c>
       <c r="AD4" t="n">
-        <v>1483117.279106269</v>
+        <v>1705668.42433227</v>
       </c>
       <c r="AE4" t="n">
-        <v>2029266.491789697</v>
+        <v>2333770.786951501</v>
       </c>
       <c r="AF4" t="n">
         <v>3.782923981858783e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>46</v>
+        <v>45.39713541666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>1835596.145906697</v>
+        <v>2111038.978512721</v>
       </c>
     </row>
     <row r="5">
@@ -4721,28 +4721,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1346.72449826781</v>
+        <v>1559.595094343704</v>
       </c>
       <c r="AB5" t="n">
-        <v>1842.647871821702</v>
+        <v>2133.906812560641</v>
       </c>
       <c r="AC5" t="n">
-        <v>1666.788145107569</v>
+        <v>1930.249741326875</v>
       </c>
       <c r="AD5" t="n">
-        <v>1346724.49826781</v>
+        <v>1559595.094343703</v>
       </c>
       <c r="AE5" t="n">
-        <v>1842647.871821702</v>
+        <v>2133906.812560641</v>
       </c>
       <c r="AF5" t="n">
         <v>3.99342348241825e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>44</v>
+        <v>43.00130208333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>1666788.145107569</v>
+        <v>1930249.741326875</v>
       </c>
     </row>
     <row r="6">
@@ -4827,28 +4827,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1252.895024325066</v>
+        <v>1465.798774789883</v>
       </c>
       <c r="AB6" t="n">
-        <v>1714.266246108998</v>
+        <v>2005.570550145531</v>
       </c>
       <c r="AC6" t="n">
-        <v>1550.659081568142</v>
+        <v>1814.161711675587</v>
       </c>
       <c r="AD6" t="n">
-        <v>1252895.024325066</v>
+        <v>1465798.774789883</v>
       </c>
       <c r="AE6" t="n">
-        <v>1714266.246108998</v>
+        <v>2005570.550145531</v>
       </c>
       <c r="AF6" t="n">
         <v>4.117665668838687e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>42</v>
+        <v>41.70572916666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>1550659.081568142</v>
+        <v>1814161.711675587</v>
       </c>
     </row>
     <row r="7">
@@ -4933,28 +4933,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1194.081736372575</v>
+        <v>1406.951321418611</v>
       </c>
       <c r="AB7" t="n">
-        <v>1633.795310873257</v>
+        <v>1925.052868276543</v>
       </c>
       <c r="AC7" t="n">
-        <v>1477.868179449634</v>
+        <v>1741.328524356898</v>
       </c>
       <c r="AD7" t="n">
-        <v>1194081.736372575</v>
+        <v>1406951.321418611</v>
       </c>
       <c r="AE7" t="n">
-        <v>1633795.310873257</v>
+        <v>1925052.868276543</v>
       </c>
       <c r="AF7" t="n">
         <v>4.189942439707476e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>41</v>
+        <v>40.98958333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>1477868.179449634</v>
+        <v>1741328.524356898</v>
       </c>
     </row>
     <row r="8">
@@ -5039,28 +5039,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1197.079221514586</v>
+        <v>1409.948806560622</v>
       </c>
       <c r="AB8" t="n">
-        <v>1637.896602284269</v>
+        <v>1929.154159687554</v>
       </c>
       <c r="AC8" t="n">
-        <v>1481.578049364576</v>
+        <v>1745.038394271841</v>
       </c>
       <c r="AD8" t="n">
-        <v>1197079.221514586</v>
+        <v>1409948.806560623</v>
       </c>
       <c r="AE8" t="n">
-        <v>1637896.602284268</v>
+        <v>1929154.159687554</v>
       </c>
       <c r="AF8" t="n">
         <v>4.194162981072077e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>41</v>
+        <v>40.94401041666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>1481578.049364576</v>
+        <v>1745038.394271841</v>
       </c>
     </row>
   </sheetData>
@@ -5336,28 +5336,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1349.837574685947</v>
+        <v>1593.045934500056</v>
       </c>
       <c r="AB2" t="n">
-        <v>1846.907320316236</v>
+        <v>2179.675727809477</v>
       </c>
       <c r="AC2" t="n">
-        <v>1670.641077815958</v>
+        <v>1971.650535541439</v>
       </c>
       <c r="AD2" t="n">
-        <v>1349837.574685948</v>
+        <v>1593045.934500056</v>
       </c>
       <c r="AE2" t="n">
-        <v>1846907.320316236</v>
+        <v>2179675.727809478</v>
       </c>
       <c r="AF2" t="n">
         <v>4.73633242806798e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>51</v>
+        <v>50.61197916666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1670641.077815958</v>
+        <v>1971650.535541438</v>
       </c>
     </row>
     <row r="3">
@@ -5442,28 +5442,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1021.589431852131</v>
+        <v>1227.308544899629</v>
       </c>
       <c r="AB3" t="n">
-        <v>1397.783730004985</v>
+        <v>1679.25769616331</v>
       </c>
       <c r="AC3" t="n">
-        <v>1264.381212615095</v>
+        <v>1518.991698494462</v>
       </c>
       <c r="AD3" t="n">
-        <v>1021589.431852131</v>
+        <v>1227308.544899629</v>
       </c>
       <c r="AE3" t="n">
-        <v>1397783.730004985</v>
+        <v>1679257.69616331</v>
       </c>
       <c r="AF3" t="n">
         <v>5.553335044507878e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>44</v>
+        <v>43.1640625</v>
       </c>
       <c r="AH3" t="n">
-        <v>1264381.212615095</v>
+        <v>1518991.698494462</v>
       </c>
     </row>
     <row r="4">
@@ -5548,28 +5548,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1025.897578837312</v>
+        <v>1231.61669188481</v>
       </c>
       <c r="AB4" t="n">
-        <v>1403.67832677214</v>
+        <v>1685.152292930465</v>
       </c>
       <c r="AC4" t="n">
-        <v>1269.713237339911</v>
+        <v>1524.323723219278</v>
       </c>
       <c r="AD4" t="n">
-        <v>1025897.578837312</v>
+        <v>1231616.69188481</v>
       </c>
       <c r="AE4" t="n">
-        <v>1403678.32677214</v>
+        <v>1685152.292930465</v>
       </c>
       <c r="AF4" t="n">
         <v>5.556280524873592e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>44</v>
+        <v>43.13802083333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>1269713.237339911</v>
+        <v>1524323.723219278</v>
       </c>
     </row>
   </sheetData>
@@ -5845,28 +5845,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1845.266863130509</v>
+        <v>2120.159911629912</v>
       </c>
       <c r="AB2" t="n">
-        <v>2524.775529563716</v>
+        <v>2900.896325945988</v>
       </c>
       <c r="AC2" t="n">
-        <v>2283.814496566866</v>
+        <v>2624.038852031266</v>
       </c>
       <c r="AD2" t="n">
-        <v>1845266.863130509</v>
+        <v>2120159.911629912</v>
       </c>
       <c r="AE2" t="n">
-        <v>2524775.529563716</v>
+        <v>2900896.325945988</v>
       </c>
       <c r="AF2" t="n">
         <v>3.627214451435923e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>58</v>
+        <v>57.2265625</v>
       </c>
       <c r="AH2" t="n">
-        <v>2283814.496566866</v>
+        <v>2624038.852031266</v>
       </c>
     </row>
     <row r="3">
@@ -5951,28 +5951,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1235.993062458228</v>
+        <v>1463.472249285378</v>
       </c>
       <c r="AB3" t="n">
-        <v>1691.140236220858</v>
+        <v>2002.387295311206</v>
       </c>
       <c r="AC3" t="n">
-        <v>1529.740185606168</v>
+        <v>1811.282262214924</v>
       </c>
       <c r="AD3" t="n">
-        <v>1235993.062458228</v>
+        <v>1463472.249285378</v>
       </c>
       <c r="AE3" t="n">
-        <v>1691140.236220858</v>
+        <v>2002387.295311206</v>
       </c>
       <c r="AF3" t="n">
         <v>4.615324295405677e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>45</v>
+        <v>44.98046875</v>
       </c>
       <c r="AH3" t="n">
-        <v>1529740.185606168</v>
+        <v>1811282.262214924</v>
       </c>
     </row>
     <row r="4">
@@ -6057,28 +6057,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1085.852451660519</v>
+        <v>1284.919104550871</v>
       </c>
       <c r="AB4" t="n">
-        <v>1485.711228791165</v>
+        <v>1758.083005476653</v>
       </c>
       <c r="AC4" t="n">
-        <v>1343.917034324141</v>
+        <v>1590.294030918956</v>
       </c>
       <c r="AD4" t="n">
-        <v>1085852.451660519</v>
+        <v>1284919.104550871</v>
       </c>
       <c r="AE4" t="n">
-        <v>1485711.228791165</v>
+        <v>1758083.005476653</v>
       </c>
       <c r="AF4" t="n">
         <v>4.93831728409279e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>43</v>
+        <v>42.03125</v>
       </c>
       <c r="AH4" t="n">
-        <v>1343917.034324141</v>
+        <v>1590294.030918956</v>
       </c>
     </row>
     <row r="5">
@@ -6163,28 +6163,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1076.519083584247</v>
+        <v>1285.067295573221</v>
       </c>
       <c r="AB5" t="n">
-        <v>1472.94090283007</v>
+        <v>1758.285766971159</v>
       </c>
       <c r="AC5" t="n">
-        <v>1332.365490349508</v>
+        <v>1590.477441141004</v>
       </c>
       <c r="AD5" t="n">
-        <v>1076519.083584247</v>
+        <v>1285067.295573221</v>
       </c>
       <c r="AE5" t="n">
-        <v>1472940.90283007</v>
+        <v>1758285.766971159</v>
       </c>
       <c r="AF5" t="n">
         <v>4.950114658802981e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>42</v>
+        <v>41.93359375</v>
       </c>
       <c r="AH5" t="n">
-        <v>1332365.490349509</v>
+        <v>1590477.441141004</v>
       </c>
     </row>
   </sheetData>
@@ -6460,28 +6460,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1044.3229615504</v>
+        <v>1266.217147493386</v>
       </c>
       <c r="AB2" t="n">
-        <v>1428.888748270703</v>
+        <v>1732.494162758487</v>
       </c>
       <c r="AC2" t="n">
-        <v>1292.5176115937</v>
+        <v>1567.147351435646</v>
       </c>
       <c r="AD2" t="n">
-        <v>1044322.9615504</v>
+        <v>1266217.147493386</v>
       </c>
       <c r="AE2" t="n">
-        <v>1428888.748270703</v>
+        <v>1732494.162758487</v>
       </c>
       <c r="AF2" t="n">
         <v>5.924965752722314e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>47</v>
+        <v>46.34114583333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1292517.6115937</v>
+        <v>1567147.351435646</v>
       </c>
     </row>
     <row r="3">
@@ -6566,28 +6566,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>984.4282919448945</v>
+        <v>1197.172719923189</v>
       </c>
       <c r="AB3" t="n">
-        <v>1346.938218950117</v>
+        <v>1638.024530931777</v>
       </c>
       <c r="AC3" t="n">
-        <v>1218.38832577318</v>
+        <v>1481.693768681516</v>
       </c>
       <c r="AD3" t="n">
-        <v>984428.2919448945</v>
+        <v>1197172.719923189</v>
       </c>
       <c r="AE3" t="n">
-        <v>1346938.218950117</v>
+        <v>1638024.530931777</v>
       </c>
       <c r="AF3" t="n">
         <v>6.118106985088636e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>45</v>
+        <v>44.87630208333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1218388.32577318</v>
+        <v>1481693.768681516</v>
       </c>
     </row>
   </sheetData>
@@ -6863,28 +6863,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3404.66565732739</v>
+        <v>3783.178225936368</v>
       </c>
       <c r="AB2" t="n">
-        <v>4658.413755603589</v>
+        <v>5176.311350770408</v>
       </c>
       <c r="AC2" t="n">
-        <v>4213.821284893377</v>
+        <v>4682.291460451294</v>
       </c>
       <c r="AD2" t="n">
-        <v>3404665.65732739</v>
+        <v>3783178.225936368</v>
       </c>
       <c r="AE2" t="n">
-        <v>4658413.755603589</v>
+        <v>5176311.350770408</v>
       </c>
       <c r="AF2" t="n">
         <v>2.204729403170063e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>77</v>
+        <v>76.00911458333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>4213821.284893377</v>
+        <v>4682291.460451295</v>
       </c>
     </row>
     <row r="3">
@@ -6969,28 +6969,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1859.140932450743</v>
+        <v>2121.213676481504</v>
       </c>
       <c r="AB3" t="n">
-        <v>2543.758643288399</v>
+        <v>2902.338133504759</v>
       </c>
       <c r="AC3" t="n">
-        <v>2300.985888560633</v>
+        <v>2625.343055500219</v>
       </c>
       <c r="AD3" t="n">
-        <v>1859140.932450743</v>
+        <v>2121213.676481504</v>
       </c>
       <c r="AE3" t="n">
-        <v>2543758.643288399</v>
+        <v>2902338.13350476</v>
       </c>
       <c r="AF3" t="n">
         <v>3.247503345054701e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>52</v>
+        <v>51.6015625</v>
       </c>
       <c r="AH3" t="n">
-        <v>2300985.888560633</v>
+        <v>2625343.055500219</v>
       </c>
     </row>
     <row r="4">
@@ -7075,28 +7075,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1554.000286313487</v>
+        <v>1777.238326578798</v>
       </c>
       <c r="AB4" t="n">
-        <v>2126.251749388188</v>
+        <v>2431.695884646446</v>
       </c>
       <c r="AC4" t="n">
-        <v>1923.325266639652</v>
+        <v>2199.618242322398</v>
       </c>
       <c r="AD4" t="n">
-        <v>1554000.286313487</v>
+        <v>1777238.326578798</v>
       </c>
       <c r="AE4" t="n">
-        <v>2126251.749388188</v>
+        <v>2431695.884646446</v>
       </c>
       <c r="AF4" t="n">
         <v>3.641342923204169e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>47</v>
+        <v>46.02213541666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>1923325.266639652</v>
+        <v>2199618.242322398</v>
       </c>
     </row>
     <row r="5">
@@ -7181,28 +7181,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1404.267931970239</v>
+        <v>1617.864363344428</v>
       </c>
       <c r="AB5" t="n">
-        <v>1921.381336450492</v>
+        <v>2213.633397066153</v>
       </c>
       <c r="AC5" t="n">
-        <v>1738.007398375299</v>
+        <v>2002.367332504144</v>
       </c>
       <c r="AD5" t="n">
-        <v>1404267.931970239</v>
+        <v>1617864.363344428</v>
       </c>
       <c r="AE5" t="n">
-        <v>1921381.336450492</v>
+        <v>2213633.397066153</v>
       </c>
       <c r="AF5" t="n">
         <v>3.852420344173166e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>44</v>
+        <v>43.50260416666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>1738007.398375299</v>
+        <v>2002367.332504144</v>
       </c>
     </row>
     <row r="6">
@@ -7287,28 +7287,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1314.050610348823</v>
+        <v>1517.87079321648</v>
       </c>
       <c r="AB6" t="n">
-        <v>1797.942016900742</v>
+        <v>2076.817783012122</v>
       </c>
       <c r="AC6" t="n">
-        <v>1626.348954235204</v>
+        <v>1878.60920863351</v>
       </c>
       <c r="AD6" t="n">
-        <v>1314050.610348823</v>
+        <v>1517870.79321648</v>
       </c>
       <c r="AE6" t="n">
-        <v>1797942.016900742</v>
+        <v>2076817.783012122</v>
       </c>
       <c r="AF6" t="n">
         <v>3.985244672490241e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>43</v>
+        <v>42.05078125</v>
       </c>
       <c r="AH6" t="n">
-        <v>1626348.954235204</v>
+        <v>1878609.20863351</v>
       </c>
     </row>
     <row r="7">
@@ -7393,28 +7393,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1242.174569092245</v>
+        <v>1445.960586541122</v>
       </c>
       <c r="AB7" t="n">
-        <v>1699.598046306347</v>
+        <v>1978.427065784479</v>
       </c>
       <c r="AC7" t="n">
-        <v>1537.390794167708</v>
+        <v>1789.608763365834</v>
       </c>
       <c r="AD7" t="n">
-        <v>1242174.569092245</v>
+        <v>1445960.586541122</v>
       </c>
       <c r="AE7" t="n">
-        <v>1699598.046306347</v>
+        <v>1978427.065784479</v>
       </c>
       <c r="AF7" t="n">
         <v>4.075853516613518e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>42</v>
+        <v>41.11328125</v>
       </c>
       <c r="AH7" t="n">
-        <v>1537390.794167708</v>
+        <v>1789608.763365834</v>
       </c>
     </row>
     <row r="8">
@@ -7499,28 +7499,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1212.557756577878</v>
+        <v>1416.41109383446</v>
       </c>
       <c r="AB8" t="n">
-        <v>1659.075016822637</v>
+        <v>1937.996146231611</v>
       </c>
       <c r="AC8" t="n">
-        <v>1500.735225743495</v>
+        <v>1753.03651402994</v>
       </c>
       <c r="AD8" t="n">
-        <v>1212557.756577878</v>
+        <v>1416411.09383446</v>
       </c>
       <c r="AE8" t="n">
-        <v>1659075.016822637</v>
+        <v>1937996.146231611</v>
       </c>
       <c r="AF8" t="n">
         <v>4.101337254023188e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>41</v>
+        <v>40.859375</v>
       </c>
       <c r="AH8" t="n">
-        <v>1500735.225743495</v>
+        <v>1753036.51402994</v>
       </c>
     </row>
     <row r="9">
@@ -7605,28 +7605,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1216.374607578052</v>
+        <v>1420.227944834633</v>
       </c>
       <c r="AB9" t="n">
-        <v>1664.297400748656</v>
+        <v>1943.21853015763</v>
       </c>
       <c r="AC9" t="n">
-        <v>1505.459192677276</v>
+        <v>1757.760480963721</v>
       </c>
       <c r="AD9" t="n">
-        <v>1216374.607578052</v>
+        <v>1420227.944834633</v>
       </c>
       <c r="AE9" t="n">
-        <v>1664297.400748656</v>
+        <v>1943218.53015763</v>
       </c>
       <c r="AF9" t="n">
         <v>4.101337254023188e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>41</v>
+        <v>40.859375</v>
       </c>
       <c r="AH9" t="n">
-        <v>1505459.192677276</v>
+        <v>1757760.480963721</v>
       </c>
     </row>
   </sheetData>
@@ -7902,28 +7902,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>973.7980220916913</v>
+        <v>1194.210812161509</v>
       </c>
       <c r="AB2" t="n">
-        <v>1332.393414762556</v>
+        <v>1633.971918062099</v>
       </c>
       <c r="AC2" t="n">
-        <v>1205.23165728352</v>
+        <v>1478.027931496242</v>
       </c>
       <c r="AD2" t="n">
-        <v>973798.0220916914</v>
+        <v>1194210.812161509</v>
       </c>
       <c r="AE2" t="n">
-        <v>1332393.414762556</v>
+        <v>1633971.918062099</v>
       </c>
       <c r="AF2" t="n">
         <v>6.471467719924004e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>47</v>
+        <v>46.41927083333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1205231.65728352</v>
+        <v>1478027.931496242</v>
       </c>
     </row>
     <row r="3">
@@ -8008,28 +8008,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>979.2419461032071</v>
+        <v>1199.654736173025</v>
       </c>
       <c r="AB3" t="n">
-        <v>1339.842031764089</v>
+        <v>1641.420535063632</v>
       </c>
       <c r="AC3" t="n">
-        <v>1211.969388732626</v>
+        <v>1484.765662945348</v>
       </c>
       <c r="AD3" t="n">
-        <v>979241.9461032071</v>
+        <v>1199654.736173025</v>
       </c>
       <c r="AE3" t="n">
-        <v>1339842.031764089</v>
+        <v>1641420.535063632</v>
       </c>
       <c r="AF3" t="n">
         <v>6.475159109710769e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>47</v>
+        <v>46.39322916666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>1211969.388732626</v>
+        <v>1484765.662945348</v>
       </c>
     </row>
   </sheetData>
@@ -8305,28 +8305,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2414.619956999364</v>
+        <v>2730.902951212669</v>
       </c>
       <c r="AB2" t="n">
-        <v>3303.789550681028</v>
+        <v>3736.541896784619</v>
       </c>
       <c r="AC2" t="n">
-        <v>2988.480512861664</v>
+        <v>3379.931582424843</v>
       </c>
       <c r="AD2" t="n">
-        <v>2414619.956999364</v>
+        <v>2730902.951212669</v>
       </c>
       <c r="AE2" t="n">
-        <v>3303789.550681028</v>
+        <v>3736541.896784618</v>
       </c>
       <c r="AF2" t="n">
         <v>2.896108995911407e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>65</v>
+        <v>64.47916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2988480.512861663</v>
+        <v>3379931.582424843</v>
       </c>
     </row>
     <row r="3">
@@ -8411,28 +8411,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1497.224663780948</v>
+        <v>1736.867427533212</v>
       </c>
       <c r="AB3" t="n">
-        <v>2048.56883787548</v>
+        <v>2376.45863953391</v>
       </c>
       <c r="AC3" t="n">
-        <v>1853.056303173065</v>
+        <v>2149.652762357442</v>
       </c>
       <c r="AD3" t="n">
-        <v>1497224.663780948</v>
+        <v>1736867.427533212</v>
       </c>
       <c r="AE3" t="n">
-        <v>2048568.83787548</v>
+        <v>2376458.63953391</v>
       </c>
       <c r="AF3" t="n">
         <v>3.912342943867644e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>48</v>
+        <v>47.72786458333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1853056.303173065</v>
+        <v>2149652.762357442</v>
       </c>
     </row>
     <row r="4">
@@ -8517,28 +8517,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1277.197076588775</v>
+        <v>1497.662952773854</v>
       </c>
       <c r="AB4" t="n">
-        <v>1747.517386147084</v>
+        <v>2049.16852421152</v>
       </c>
       <c r="AC4" t="n">
-        <v>1580.736779469261</v>
+        <v>1853.598756286859</v>
       </c>
       <c r="AD4" t="n">
-        <v>1277197.076588775</v>
+        <v>1497662.952773854</v>
       </c>
       <c r="AE4" t="n">
-        <v>1747517.386147084</v>
+        <v>2049168.52421152</v>
       </c>
       <c r="AF4" t="n">
         <v>4.286654347221549e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>44</v>
+        <v>43.56119791666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>1580736.779469261</v>
+        <v>1853598.756286859</v>
       </c>
     </row>
     <row r="5">
@@ -8623,28 +8623,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1159.011201149101</v>
+        <v>1369.888633550586</v>
       </c>
       <c r="AB5" t="n">
-        <v>1585.810257377682</v>
+        <v>1874.34206364512</v>
       </c>
       <c r="AC5" t="n">
-        <v>1434.46275211223</v>
+        <v>1695.457487746438</v>
       </c>
       <c r="AD5" t="n">
-        <v>1159011.201149101</v>
+        <v>1369888.633550586</v>
       </c>
       <c r="AE5" t="n">
-        <v>1585810.257377682</v>
+        <v>1874342.06364512</v>
       </c>
       <c r="AF5" t="n">
         <v>4.482845151738079e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>42</v>
+        <v>41.65364583333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>1434462.75211223</v>
+        <v>1695457.487746438</v>
       </c>
     </row>
     <row r="6">
@@ -8729,28 +8729,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1141.284352728587</v>
+        <v>1342.540186957556</v>
       </c>
       <c r="AB6" t="n">
-        <v>1561.555601315377</v>
+        <v>1836.922712488225</v>
       </c>
       <c r="AC6" t="n">
-        <v>1412.522926382888</v>
+        <v>1661.609386945568</v>
       </c>
       <c r="AD6" t="n">
-        <v>1141284.352728587</v>
+        <v>1342540.186957556</v>
       </c>
       <c r="AE6" t="n">
-        <v>1561555.601315377</v>
+        <v>1836922.712488225</v>
       </c>
       <c r="AF6" t="n">
         <v>4.517838248450092e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>42</v>
+        <v>41.33463541666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>1412522.926382888</v>
+        <v>1661609.386945568</v>
       </c>
     </row>
   </sheetData>
@@ -9026,28 +9026,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2861.000941457231</v>
+        <v>3208.371866223148</v>
       </c>
       <c r="AB2" t="n">
-        <v>3914.547706555493</v>
+        <v>4389.83593074387</v>
       </c>
       <c r="AC2" t="n">
-        <v>3540.948767543901</v>
+        <v>3970.876150686933</v>
       </c>
       <c r="AD2" t="n">
-        <v>2861000.941457231</v>
+        <v>3208371.866223148</v>
       </c>
       <c r="AE2" t="n">
-        <v>3914547.706555493</v>
+        <v>4389835.930743869</v>
       </c>
       <c r="AF2" t="n">
         <v>2.522223389440173e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>70</v>
+        <v>69.8828125</v>
       </c>
       <c r="AH2" t="n">
-        <v>3540948.767543901</v>
+        <v>3970876.150686933</v>
       </c>
     </row>
     <row r="3">
@@ -9132,28 +9132,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1675.029930673372</v>
+        <v>1925.889951104989</v>
       </c>
       <c r="AB3" t="n">
-        <v>2291.849848252452</v>
+        <v>2635.087595370012</v>
       </c>
       <c r="AC3" t="n">
-        <v>2073.118915366702</v>
+        <v>2383.598533636564</v>
       </c>
       <c r="AD3" t="n">
-        <v>1675029.930673372</v>
+        <v>1925889.951104989</v>
       </c>
       <c r="AE3" t="n">
-        <v>2291849.848252452</v>
+        <v>2635087.595370011</v>
       </c>
       <c r="AF3" t="n">
         <v>3.551580766710626e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>50</v>
+        <v>49.62890625</v>
       </c>
       <c r="AH3" t="n">
-        <v>2073118.915366702</v>
+        <v>2383598.533636564</v>
       </c>
     </row>
     <row r="4">
@@ -9238,28 +9238,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1410.509666249348</v>
+        <v>1632.450580799456</v>
       </c>
       <c r="AB4" t="n">
-        <v>1929.921552657051</v>
+        <v>2233.590903286621</v>
       </c>
       <c r="AC4" t="n">
-        <v>1745.732548333373</v>
+        <v>2020.420122341466</v>
       </c>
       <c r="AD4" t="n">
-        <v>1410509.666249348</v>
+        <v>1632450.580799456</v>
       </c>
       <c r="AE4" t="n">
-        <v>1929921.552657051</v>
+        <v>2233590.903286621</v>
       </c>
       <c r="AF4" t="n">
         <v>3.937928209468368e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>45</v>
+        <v>44.75911458333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>1745732.548333373</v>
+        <v>2020420.122341466</v>
       </c>
     </row>
     <row r="5">
@@ -9344,28 +9344,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1283.524858011999</v>
+        <v>1495.814682128677</v>
       </c>
       <c r="AB5" t="n">
-        <v>1756.175335852352</v>
+        <v>2046.639638774843</v>
       </c>
       <c r="AC5" t="n">
-        <v>1588.568426606168</v>
+        <v>1851.311224126945</v>
       </c>
       <c r="AD5" t="n">
-        <v>1283524.858011999</v>
+        <v>1495814.682128677</v>
       </c>
       <c r="AE5" t="n">
-        <v>1756175.335852352</v>
+        <v>2046639.638774842</v>
       </c>
       <c r="AF5" t="n">
         <v>4.139088791086449e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>43</v>
+        <v>42.58463541666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>1588568.426606168</v>
+        <v>1851311.224126945</v>
       </c>
     </row>
     <row r="6">
@@ -9450,28 +9450,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1198.039020186887</v>
+        <v>1400.610434062431</v>
       </c>
       <c r="AB6" t="n">
-        <v>1639.209841171039</v>
+        <v>1916.376986455609</v>
       </c>
       <c r="AC6" t="n">
-        <v>1482.765954575136</v>
+        <v>1733.480656520278</v>
       </c>
       <c r="AD6" t="n">
-        <v>1198039.020186887</v>
+        <v>1400610.434062431</v>
       </c>
       <c r="AE6" t="n">
-        <v>1639209.841171039</v>
+        <v>1916376.986455609</v>
       </c>
       <c r="AF6" t="n">
         <v>4.267149295938876e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>42</v>
+        <v>41.30859375</v>
       </c>
       <c r="AH6" t="n">
-        <v>1482765.954575137</v>
+        <v>1733480.656520278</v>
       </c>
     </row>
     <row r="7">
@@ -9556,28 +9556,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1183.347960753392</v>
+        <v>1385.919374628936</v>
       </c>
       <c r="AB7" t="n">
-        <v>1619.108885530332</v>
+        <v>1896.276030814902</v>
       </c>
       <c r="AC7" t="n">
-        <v>1464.58340592891</v>
+        <v>1715.298107874052</v>
       </c>
       <c r="AD7" t="n">
-        <v>1183347.960753392</v>
+        <v>1385919.374628936</v>
       </c>
       <c r="AE7" t="n">
-        <v>1619108.885530332</v>
+        <v>1896276.030814902</v>
       </c>
       <c r="AF7" t="n">
         <v>4.29070376511892e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>42</v>
+        <v>41.08072916666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>1464583.40592891</v>
+        <v>1715298.107874052</v>
       </c>
     </row>
   </sheetData>
@@ -9853,28 +9853,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4027.083975023989</v>
+        <v>4446.783382768808</v>
       </c>
       <c r="AB2" t="n">
-        <v>5510.033957034332</v>
+        <v>6084.285202541914</v>
       </c>
       <c r="AC2" t="n">
-        <v>4984.164049555997</v>
+        <v>5503.609562158998</v>
       </c>
       <c r="AD2" t="n">
-        <v>4027083.975023989</v>
+        <v>4446783.382768808</v>
       </c>
       <c r="AE2" t="n">
-        <v>5510033.957034332</v>
+        <v>6084285.202541914</v>
       </c>
       <c r="AF2" t="n">
         <v>1.934733540055666e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>83</v>
+        <v>82.81901041666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>4984164.049555996</v>
+        <v>5503609.562158998</v>
       </c>
     </row>
     <row r="3">
@@ -9959,28 +9959,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2052.813220505585</v>
+        <v>2326.104269017619</v>
       </c>
       <c r="AB3" t="n">
-        <v>2808.749612023362</v>
+        <v>3182.678481347847</v>
       </c>
       <c r="AC3" t="n">
-        <v>2540.686491156692</v>
+        <v>2878.928114005193</v>
       </c>
       <c r="AD3" t="n">
-        <v>2052813.220505585</v>
+        <v>2326104.269017619</v>
       </c>
       <c r="AE3" t="n">
-        <v>2808749.612023362</v>
+        <v>3182678.481347847</v>
       </c>
       <c r="AF3" t="n">
         <v>2.98467289661049e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>54</v>
+        <v>53.68489583333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>2540686.491156692</v>
+        <v>2878928.114005193</v>
       </c>
     </row>
     <row r="4">
@@ -10065,28 +10065,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1686.353759600909</v>
+        <v>1920.560313816932</v>
       </c>
       <c r="AB4" t="n">
-        <v>2307.343610563183</v>
+        <v>2627.79535050549</v>
       </c>
       <c r="AC4" t="n">
-        <v>2087.133974748129</v>
+        <v>2377.002250387183</v>
       </c>
       <c r="AD4" t="n">
-        <v>1686353.759600909</v>
+        <v>1920560.313816932</v>
       </c>
       <c r="AE4" t="n">
-        <v>2307343.610563183</v>
+        <v>2627795.35050549</v>
       </c>
       <c r="AF4" t="n">
         <v>3.391998174411295e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>48</v>
+        <v>47.23958333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>2087133.974748129</v>
+        <v>2377002.250387183</v>
       </c>
     </row>
     <row r="5">
@@ -10171,28 +10171,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1522.843927524136</v>
+        <v>1747.253481344608</v>
       </c>
       <c r="AB5" t="n">
-        <v>2083.622244771058</v>
+        <v>2390.669296559017</v>
       </c>
       <c r="AC5" t="n">
-        <v>1884.764262112295</v>
+        <v>2162.507174220855</v>
       </c>
       <c r="AD5" t="n">
-        <v>1522843.927524136</v>
+        <v>1747253.481344608</v>
       </c>
       <c r="AE5" t="n">
-        <v>2083622.244771058</v>
+        <v>2390669.296559017</v>
       </c>
       <c r="AF5" t="n">
         <v>3.603905766064765e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>45</v>
+        <v>44.45963541666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>1884764.262112295</v>
+        <v>2162507.174220855</v>
       </c>
     </row>
     <row r="6">
@@ -10277,28 +10277,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1418.672349850163</v>
+        <v>1633.420553920348</v>
       </c>
       <c r="AB6" t="n">
-        <v>1941.090096471871</v>
+        <v>2234.918063302819</v>
       </c>
       <c r="AC6" t="n">
-        <v>1755.835182001656</v>
+        <v>2021.6206200684</v>
       </c>
       <c r="AD6" t="n">
-        <v>1418672.349850163</v>
+        <v>1633420.553920348</v>
       </c>
       <c r="AE6" t="n">
-        <v>1941090.096471871</v>
+        <v>2234918.063302819</v>
       </c>
       <c r="AF6" t="n">
         <v>3.739270662010652e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>43</v>
+        <v>42.8515625</v>
       </c>
       <c r="AH6" t="n">
-        <v>1755835.182001656</v>
+        <v>2021620.6200684</v>
       </c>
     </row>
     <row r="7">
@@ -10383,28 +10383,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1342.572827193701</v>
+        <v>1557.286865845105</v>
       </c>
       <c r="AB7" t="n">
-        <v>1836.967372299305</v>
+        <v>2130.748592497005</v>
       </c>
       <c r="AC7" t="n">
-        <v>1661.649784486958</v>
+        <v>1927.392937353522</v>
       </c>
       <c r="AD7" t="n">
-        <v>1342572.827193701</v>
+        <v>1557286.865845105</v>
       </c>
       <c r="AE7" t="n">
-        <v>1836967.372299304</v>
+        <v>2130748.592497005</v>
       </c>
       <c r="AF7" t="n">
         <v>3.835748915121175e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>42</v>
+        <v>41.77734375</v>
       </c>
       <c r="AH7" t="n">
-        <v>1661649.784486958</v>
+        <v>1927392.937353522</v>
       </c>
     </row>
     <row r="8">
@@ -10489,28 +10489,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1291.41644551088</v>
+        <v>1496.33449479659</v>
       </c>
       <c r="AB8" t="n">
-        <v>1766.97295402059</v>
+        <v>2047.350869399597</v>
       </c>
       <c r="AC8" t="n">
-        <v>1598.335535250981</v>
+        <v>1851.954575899091</v>
       </c>
       <c r="AD8" t="n">
-        <v>1291416.44551088</v>
+        <v>1496334.494796589</v>
       </c>
       <c r="AE8" t="n">
-        <v>1766972.95402059</v>
+        <v>2047350.869399597</v>
       </c>
       <c r="AF8" t="n">
         <v>3.903431363094118e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>42</v>
+        <v>41.04817708333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>1598335.535250981</v>
+        <v>1851954.575899091</v>
       </c>
     </row>
     <row r="9">
@@ -10595,28 +10595,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1257.832197098467</v>
+        <v>1462.817566191881</v>
       </c>
       <c r="AB9" t="n">
-        <v>1721.021503710255</v>
+        <v>2001.491529020104</v>
       </c>
       <c r="AC9" t="n">
-        <v>1556.769626864999</v>
+        <v>1810.471986601429</v>
       </c>
       <c r="AD9" t="n">
-        <v>1257832.197098467</v>
+        <v>1462817.566191881</v>
       </c>
       <c r="AE9" t="n">
-        <v>1721021.503710255</v>
+        <v>2001491.529020104</v>
       </c>
       <c r="AF9" t="n">
         <v>3.92976598830541e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>41</v>
+        <v>40.77473958333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>1556769.626864999</v>
+        <v>1810471.986601429</v>
       </c>
     </row>
     <row r="10">
@@ -10701,28 +10701,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1259.911231811215</v>
+        <v>1464.896600904629</v>
       </c>
       <c r="AB10" t="n">
-        <v>1723.866130724775</v>
+        <v>2004.336156034624</v>
       </c>
       <c r="AC10" t="n">
-        <v>1559.342766669712</v>
+        <v>1813.045126406142</v>
       </c>
       <c r="AD10" t="n">
-        <v>1259911.231811215</v>
+        <v>1464896.600904629</v>
       </c>
       <c r="AE10" t="n">
-        <v>1723866.130724775</v>
+        <v>2004336.156034624</v>
       </c>
       <c r="AF10" t="n">
         <v>3.92976598830541e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>41</v>
+        <v>40.77473958333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>1559342.766669712</v>
+        <v>1813045.126406142</v>
       </c>
     </row>
   </sheetData>
@@ -10998,28 +10998,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2021.042776223936</v>
+        <v>2316.086447051765</v>
       </c>
       <c r="AB2" t="n">
-        <v>2765.27988854413</v>
+        <v>3168.971655379052</v>
       </c>
       <c r="AC2" t="n">
-        <v>2501.365457076177</v>
+        <v>2866.529448269208</v>
       </c>
       <c r="AD2" t="n">
-        <v>2021042.776223936</v>
+        <v>2316086.447051765</v>
       </c>
       <c r="AE2" t="n">
-        <v>2765279.88854413</v>
+        <v>3168971.655379052</v>
       </c>
       <c r="AF2" t="n">
         <v>3.354796908969055e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>60</v>
+        <v>59.54427083333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>2501365.457076177</v>
+        <v>2866529.448269208</v>
       </c>
     </row>
     <row r="3">
@@ -11104,28 +11104,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1323.795541341226</v>
+        <v>1552.201018244611</v>
       </c>
       <c r="AB3" t="n">
-        <v>1811.275461400562</v>
+        <v>2123.789911438246</v>
       </c>
       <c r="AC3" t="n">
-        <v>1638.409873505568</v>
+        <v>1921.098383048442</v>
       </c>
       <c r="AD3" t="n">
-        <v>1323795.541341227</v>
+        <v>1552201.018244611</v>
       </c>
       <c r="AE3" t="n">
-        <v>1811275.461400562</v>
+        <v>2123789.911438246</v>
       </c>
       <c r="AF3" t="n">
         <v>4.351663120533026e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>46</v>
+        <v>45.90494791666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>1638409.873505568</v>
+        <v>1921098.383048441</v>
       </c>
     </row>
     <row r="4">
@@ -11210,28 +11210,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1142.263525786238</v>
+        <v>1351.562198903506</v>
       </c>
       <c r="AB4" t="n">
-        <v>1562.895349090922</v>
+        <v>1849.26702725575</v>
       </c>
       <c r="AC4" t="n">
-        <v>1413.734810511083</v>
+        <v>1672.775577637034</v>
       </c>
       <c r="AD4" t="n">
-        <v>1142263.525786238</v>
+        <v>1351562.198903506</v>
       </c>
       <c r="AE4" t="n">
-        <v>1562895.349090922</v>
+        <v>1849267.02725575</v>
       </c>
       <c r="AF4" t="n">
         <v>4.71064541278598e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>43</v>
+        <v>42.40234374999999</v>
       </c>
       <c r="AH4" t="n">
-        <v>1413734.810511083</v>
+        <v>1672775.577637034</v>
       </c>
     </row>
     <row r="5">
@@ -11316,28 +11316,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1097.295345008521</v>
+        <v>1306.661337933493</v>
       </c>
       <c r="AB5" t="n">
-        <v>1501.367900294727</v>
+        <v>1787.831688390396</v>
       </c>
       <c r="AC5" t="n">
-        <v>1358.07945507368</v>
+        <v>1617.20354128795</v>
       </c>
       <c r="AD5" t="n">
-        <v>1097295.345008521</v>
+        <v>1306661.337933493</v>
       </c>
       <c r="AE5" t="n">
-        <v>1501367.900294727</v>
+        <v>1787831.688390397</v>
       </c>
       <c r="AF5" t="n">
         <v>4.789498788092825e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>42</v>
+        <v>41.70572916666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>1358079.45507368</v>
+        <v>1617203.54128795</v>
       </c>
     </row>
   </sheetData>
@@ -11613,28 +11613,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1507.288620434524</v>
+        <v>1761.079655969208</v>
       </c>
       <c r="AB2" t="n">
-        <v>2062.338787359336</v>
+        <v>2409.586878648169</v>
       </c>
       <c r="AC2" t="n">
-        <v>1865.512068004427</v>
+        <v>2179.619288826413</v>
       </c>
       <c r="AD2" t="n">
-        <v>1507288.620434524</v>
+        <v>1761079.655969208</v>
       </c>
       <c r="AE2" t="n">
-        <v>2062338.787359336</v>
+        <v>2409586.878648169</v>
       </c>
       <c r="AF2" t="n">
         <v>4.302019222582229e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>53</v>
+        <v>52.79947916666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1865512.068004427</v>
+        <v>2179619.288826413</v>
       </c>
     </row>
     <row r="3">
@@ -11719,28 +11719,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1069.791473641163</v>
+        <v>1276.510522524908</v>
       </c>
       <c r="AB3" t="n">
-        <v>1463.735890104739</v>
+        <v>1746.578012588272</v>
       </c>
       <c r="AC3" t="n">
-        <v>1324.038991119367</v>
+        <v>1579.887058404483</v>
       </c>
       <c r="AD3" t="n">
-        <v>1069791.473641163</v>
+        <v>1276510.522524908</v>
       </c>
       <c r="AE3" t="n">
-        <v>1463735.890104739</v>
+        <v>1746578.012588272</v>
       </c>
       <c r="AF3" t="n">
         <v>5.255154938752421e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>44</v>
+        <v>43.22265625</v>
       </c>
       <c r="AH3" t="n">
-        <v>1324038.991119367</v>
+        <v>1579887.058404483</v>
       </c>
     </row>
     <row r="4">
@@ -11825,28 +11825,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1039.154832681068</v>
+        <v>1245.941201372517</v>
       </c>
       <c r="AB4" t="n">
-        <v>1421.817486349928</v>
+        <v>1704.751718764302</v>
       </c>
       <c r="AC4" t="n">
-        <v>1286.121220986066</v>
+        <v>1542.052607359502</v>
       </c>
       <c r="AD4" t="n">
-        <v>1039154.832681068</v>
+        <v>1245941.201372517</v>
       </c>
       <c r="AE4" t="n">
-        <v>1421817.486349928</v>
+        <v>1704751.718764303</v>
       </c>
       <c r="AF4" t="n">
         <v>5.324930613435452e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>43</v>
+        <v>42.65624999999999</v>
       </c>
       <c r="AH4" t="n">
-        <v>1286121.220986066</v>
+        <v>1542052.607359502</v>
       </c>
     </row>
   </sheetData>
@@ -21087,28 +21087,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1195.736558335006</v>
+        <v>1428.250093131047</v>
       </c>
       <c r="AB2" t="n">
-        <v>1636.059511287847</v>
+        <v>1954.194787368989</v>
       </c>
       <c r="AC2" t="n">
-        <v>1479.91628775448</v>
+        <v>1767.689179592102</v>
       </c>
       <c r="AD2" t="n">
-        <v>1195736.558335006</v>
+        <v>1428250.093131047</v>
       </c>
       <c r="AE2" t="n">
-        <v>1636059.511287847</v>
+        <v>1954194.787368989</v>
       </c>
       <c r="AF2" t="n">
         <v>5.265080009497341e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>49</v>
+        <v>48.45052083333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1479916.28775448</v>
+        <v>1767689.179592102</v>
       </c>
     </row>
     <row r="3">
@@ -21193,28 +21193,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>998.09485723578</v>
+        <v>1212.063777004221</v>
       </c>
       <c r="AB3" t="n">
-        <v>1365.637416507414</v>
+        <v>1658.399132177119</v>
       </c>
       <c r="AC3" t="n">
-        <v>1235.302898160098</v>
+        <v>1500.123846579935</v>
       </c>
       <c r="AD3" t="n">
-        <v>998094.85723578</v>
+        <v>1212063.777004221</v>
       </c>
       <c r="AE3" t="n">
-        <v>1365637.416507414</v>
+        <v>1658399.132177119</v>
       </c>
       <c r="AF3" t="n">
         <v>5.815958301903446e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>44</v>
+        <v>43.86067708333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1235302.898160098</v>
+        <v>1500123.846579935</v>
       </c>
     </row>
   </sheetData>
@@ -21490,28 +21490,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>975.8989724775704</v>
+        <v>1203.740373555809</v>
       </c>
       <c r="AB2" t="n">
-        <v>1335.268027767906</v>
+        <v>1647.010684376357</v>
       </c>
       <c r="AC2" t="n">
-        <v>1207.831921258183</v>
+        <v>1489.822296253491</v>
       </c>
       <c r="AD2" t="n">
-        <v>975898.9724775704</v>
+        <v>1203740.373555809</v>
       </c>
       <c r="AE2" t="n">
-        <v>1335268.027767906</v>
+        <v>1647010.684376357</v>
       </c>
       <c r="AF2" t="n">
         <v>6.877013202352128e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>50</v>
+        <v>49.05598958333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1207831.921258183</v>
+        <v>1489822.29625349</v>
       </c>
     </row>
   </sheetData>
@@ -21787,28 +21787,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2635.857262565738</v>
+        <v>2962.850573874638</v>
       </c>
       <c r="AB2" t="n">
-        <v>3606.496192458033</v>
+        <v>4053.902866917659</v>
       </c>
       <c r="AC2" t="n">
-        <v>3262.297257598898</v>
+        <v>3667.004066987293</v>
       </c>
       <c r="AD2" t="n">
-        <v>2635857.262565739</v>
+        <v>2962850.573874637</v>
       </c>
       <c r="AE2" t="n">
-        <v>3606496.192458033</v>
+        <v>4053902.866917659</v>
       </c>
       <c r="AF2" t="n">
         <v>2.699743190605659e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>68</v>
+        <v>67.12890625</v>
       </c>
       <c r="AH2" t="n">
-        <v>3262297.257598898</v>
+        <v>3667004.066987293</v>
       </c>
     </row>
     <row r="3">
@@ -21893,28 +21893,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1584.420518027049</v>
+        <v>1824.897232413698</v>
       </c>
       <c r="AB3" t="n">
-        <v>2167.87405246459</v>
+        <v>2496.90490217229</v>
       </c>
       <c r="AC3" t="n">
-        <v>1960.975195527711</v>
+        <v>2258.603802737006</v>
       </c>
       <c r="AD3" t="n">
-        <v>1584420.518027049</v>
+        <v>1824897.232413698</v>
       </c>
       <c r="AE3" t="n">
-        <v>2167874.05246459</v>
+        <v>2496904.90217229</v>
       </c>
       <c r="AF3" t="n">
         <v>3.725857172929072e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>49</v>
+        <v>48.64583333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1960975.195527711</v>
+        <v>2258603.802737006</v>
       </c>
     </row>
     <row r="4">
@@ -21999,28 +21999,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1349.675397097506</v>
+        <v>1561.257651518581</v>
       </c>
       <c r="AB4" t="n">
-        <v>1846.685421784961</v>
+        <v>2136.181596634153</v>
       </c>
       <c r="AC4" t="n">
-        <v>1670.440356969071</v>
+        <v>1932.307423201091</v>
       </c>
       <c r="AD4" t="n">
-        <v>1349675.397097507</v>
+        <v>1561257.651518581</v>
       </c>
       <c r="AE4" t="n">
-        <v>1846685.421784961</v>
+        <v>2136181.596634153</v>
       </c>
       <c r="AF4" t="n">
         <v>4.103620784978142e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>45</v>
+        <v>44.16666666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>1670440.356969072</v>
+        <v>1932307.423201091</v>
       </c>
     </row>
     <row r="5">
@@ -22105,28 +22105,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1226.916638205077</v>
+        <v>1428.878457433933</v>
       </c>
       <c r="AB5" t="n">
-        <v>1678.721472134119</v>
+        <v>1955.054543129674</v>
       </c>
       <c r="AC5" t="n">
-        <v>1518.506650934022</v>
+        <v>1768.466881469662</v>
       </c>
       <c r="AD5" t="n">
-        <v>1226916.638205077</v>
+        <v>1428878.457433933</v>
       </c>
       <c r="AE5" t="n">
-        <v>1678721.472134119</v>
+        <v>1955054.543129674</v>
       </c>
       <c r="AF5" t="n">
         <v>4.30349865782356e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>43</v>
+        <v>42.11588541666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>1518506.650934022</v>
+        <v>1768466.881469663</v>
       </c>
     </row>
     <row r="6">
@@ -22211,28 +22211,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1161.846707789071</v>
+        <v>1363.774361599147</v>
       </c>
       <c r="AB6" t="n">
-        <v>1589.689922656213</v>
+        <v>1865.97624701852</v>
       </c>
       <c r="AC6" t="n">
-        <v>1437.972147581723</v>
+        <v>1687.890092917183</v>
       </c>
       <c r="AD6" t="n">
-        <v>1161846.707789071</v>
+        <v>1363774.361599147</v>
       </c>
       <c r="AE6" t="n">
-        <v>1589689.922656213</v>
+        <v>1865976.24701852</v>
       </c>
       <c r="AF6" t="n">
         <v>4.395921295406678e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>42</v>
+        <v>41.23046875</v>
       </c>
       <c r="AH6" t="n">
-        <v>1437972.147581723</v>
+        <v>1687890.092917183</v>
       </c>
     </row>
     <row r="7">
@@ -22317,28 +22317,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1163.901600847753</v>
+        <v>1365.829254657829</v>
       </c>
       <c r="AB7" t="n">
-        <v>1592.501517994586</v>
+        <v>1868.787842356893</v>
       </c>
       <c r="AC7" t="n">
-        <v>1440.5154082071</v>
+        <v>1690.43335354256</v>
       </c>
       <c r="AD7" t="n">
-        <v>1163901.600847753</v>
+        <v>1365829.254657829</v>
       </c>
       <c r="AE7" t="n">
-        <v>1592501.517994586</v>
+        <v>1868787.842356893</v>
       </c>
       <c r="AF7" t="n">
         <v>4.400653779861235e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>42</v>
+        <v>41.18489583333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>1440515.4082071</v>
+        <v>1690433.35354256</v>
       </c>
     </row>
   </sheetData>
@@ -22614,28 +22614,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3699.220345846041</v>
+        <v>4098.240010293352</v>
       </c>
       <c r="AB2" t="n">
-        <v>5061.436475270558</v>
+        <v>5607.392783672602</v>
       </c>
       <c r="AC2" t="n">
-        <v>4578.380081841255</v>
+        <v>5072.231086423878</v>
       </c>
       <c r="AD2" t="n">
-        <v>3699220.345846041</v>
+        <v>4098240.010293351</v>
       </c>
       <c r="AE2" t="n">
-        <v>5061436.475270558</v>
+        <v>5607392.783672602</v>
       </c>
       <c r="AF2" t="n">
         <v>2.066186814315051e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>80</v>
+        <v>79.26432291666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>4578380.081841255</v>
+        <v>5072231.086423878</v>
       </c>
     </row>
     <row r="3">
@@ -22720,28 +22720,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1954.208196310162</v>
+        <v>2217.054908301302</v>
       </c>
       <c r="AB3" t="n">
-        <v>2673.833867772536</v>
+        <v>3033.472335097517</v>
       </c>
       <c r="AC3" t="n">
-        <v>2418.646916181727</v>
+        <v>2743.961992940857</v>
       </c>
       <c r="AD3" t="n">
-        <v>1954208.196310162</v>
+        <v>2217054.908301302</v>
       </c>
       <c r="AE3" t="n">
-        <v>2673833.867772535</v>
+        <v>3033472.335097517</v>
       </c>
       <c r="AF3" t="n">
         <v>3.112108992781325e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>53</v>
+        <v>52.62369791666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>2418646.916181727</v>
+        <v>2743961.992940857</v>
       </c>
     </row>
     <row r="4">
@@ -22826,28 +22826,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1615.224812091715</v>
+        <v>1848.862537703973</v>
       </c>
       <c r="AB4" t="n">
-        <v>2210.021846593408</v>
+        <v>2529.695290145094</v>
       </c>
       <c r="AC4" t="n">
-        <v>1999.100463339675</v>
+        <v>2288.264722103285</v>
       </c>
       <c r="AD4" t="n">
-        <v>1615224.812091715</v>
+        <v>1848862.537703973</v>
       </c>
       <c r="AE4" t="n">
-        <v>2210021.846593408</v>
+        <v>2529695.290145094</v>
       </c>
       <c r="AF4" t="n">
         <v>3.512316348707214e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>47</v>
+        <v>46.62760416666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>1999100.463339675</v>
+        <v>2288264.722103285</v>
       </c>
     </row>
     <row r="5">
@@ -22932,28 +22932,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1458.867240557487</v>
+        <v>1682.734471958003</v>
       </c>
       <c r="AB5" t="n">
-        <v>1996.086519211058</v>
+        <v>2302.391541538458</v>
       </c>
       <c r="AC5" t="n">
-        <v>1805.582823342579</v>
+        <v>2082.654524240851</v>
       </c>
       <c r="AD5" t="n">
-        <v>1458867.240557487</v>
+        <v>1682734.471958003</v>
       </c>
       <c r="AE5" t="n">
-        <v>1996086.519211058</v>
+        <v>2302391.541538458</v>
       </c>
       <c r="AF5" t="n">
         <v>3.723110669427449e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>44</v>
+        <v>43.984375</v>
       </c>
       <c r="AH5" t="n">
-        <v>1805582.823342579</v>
+        <v>2082654.524240851</v>
       </c>
     </row>
     <row r="6">
@@ -23038,28 +23038,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1366.093257547266</v>
+        <v>1580.156840347119</v>
       </c>
       <c r="AB6" t="n">
-        <v>1869.149062757206</v>
+        <v>2162.040300562726</v>
       </c>
       <c r="AC6" t="n">
-        <v>1690.760099574844</v>
+        <v>1955.698208719639</v>
       </c>
       <c r="AD6" t="n">
-        <v>1366093.257547266</v>
+        <v>1580156.840347119</v>
       </c>
       <c r="AE6" t="n">
-        <v>1869149.062757206</v>
+        <v>2162040.300562726</v>
       </c>
       <c r="AF6" t="n">
         <v>3.857435451366119e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>43</v>
+        <v>42.45442708333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1690760.099574844</v>
+        <v>1955698.208719639</v>
       </c>
     </row>
     <row r="7">
@@ -23144,28 +23144,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1293.705253943518</v>
+        <v>1498.066673369191</v>
       </c>
       <c r="AB7" t="n">
-        <v>1770.104602693227</v>
+        <v>2049.720912540955</v>
       </c>
       <c r="AC7" t="n">
-        <v>1601.168303769598</v>
+        <v>1854.098425449415</v>
       </c>
       <c r="AD7" t="n">
-        <v>1293705.253943518</v>
+        <v>1498066.673369191</v>
       </c>
       <c r="AE7" t="n">
-        <v>1770104.602693227</v>
+        <v>2049720.912540955</v>
       </c>
       <c r="AF7" t="n">
         <v>3.95101001855935e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>42</v>
+        <v>41.45182291666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>1601168.303769598</v>
+        <v>1854098.425449415</v>
       </c>
     </row>
     <row r="8">
@@ -23250,28 +23250,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1239.794105583689</v>
+        <v>1444.222844817067</v>
       </c>
       <c r="AB8" t="n">
-        <v>1696.340991115303</v>
+        <v>1976.049410893872</v>
       </c>
       <c r="AC8" t="n">
-        <v>1534.444587752792</v>
+        <v>1787.458028520927</v>
       </c>
       <c r="AD8" t="n">
-        <v>1239794.105583689</v>
+        <v>1444222.844817067</v>
       </c>
       <c r="AE8" t="n">
-        <v>1696340.991115303</v>
+        <v>1976049.410893872</v>
       </c>
       <c r="AF8" t="n">
         <v>4.005595182755402e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>41</v>
+        <v>40.88541666666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>1534444.587752792</v>
+        <v>1787458.028520928</v>
       </c>
     </row>
     <row r="9">
@@ -23356,28 +23356,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1239.628290559144</v>
+        <v>1444.057029792522</v>
       </c>
       <c r="AB9" t="n">
-        <v>1696.114115683478</v>
+        <v>1975.822535462047</v>
       </c>
       <c r="AC9" t="n">
-        <v>1534.239364993758</v>
+        <v>1787.252805761894</v>
       </c>
       <c r="AD9" t="n">
-        <v>1239628.290559144</v>
+        <v>1444057.029792522</v>
       </c>
       <c r="AE9" t="n">
-        <v>1696114.115683478</v>
+        <v>1975822.535462047</v>
       </c>
       <c r="AF9" t="n">
         <v>4.008110628110058e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>41</v>
+        <v>40.859375</v>
       </c>
       <c r="AH9" t="n">
-        <v>1534239.364993758</v>
+        <v>1787252.805761894</v>
       </c>
     </row>
   </sheetData>
@@ -23653,28 +23653,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>999.5563351423689</v>
+        <v>1261.314250260404</v>
       </c>
       <c r="AB2" t="n">
-        <v>1367.637075055064</v>
+        <v>1725.785802463761</v>
       </c>
       <c r="AC2" t="n">
-        <v>1237.111712102498</v>
+        <v>1561.079227632205</v>
       </c>
       <c r="AD2" t="n">
-        <v>999556.3351423689</v>
+        <v>1261314.250260404</v>
       </c>
       <c r="AE2" t="n">
-        <v>1367637.075055064</v>
+        <v>1725785.802463761</v>
       </c>
       <c r="AF2" t="n">
         <v>7.25007051179159e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>55</v>
+        <v>54.8046875</v>
       </c>
       <c r="AH2" t="n">
-        <v>1237111.712102498</v>
+        <v>1561079.227632205</v>
       </c>
     </row>
   </sheetData>
@@ -23950,28 +23950,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1667.329048850104</v>
+        <v>1941.076680548683</v>
       </c>
       <c r="AB2" t="n">
-        <v>2281.313162002929</v>
+        <v>2655.866748586091</v>
       </c>
       <c r="AC2" t="n">
-        <v>2063.587835664501</v>
+        <v>2402.394553633427</v>
       </c>
       <c r="AD2" t="n">
-        <v>1667329.048850104</v>
+        <v>1941076.680548683</v>
       </c>
       <c r="AE2" t="n">
-        <v>2281313.162002929</v>
+        <v>2655866.748586091</v>
       </c>
       <c r="AF2" t="n">
         <v>3.94038952924195e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>55</v>
+        <v>54.96744791666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>2063587.835664501</v>
+        <v>2402394.553633427</v>
       </c>
     </row>
     <row r="3">
@@ -24056,28 +24056,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1157.644408257448</v>
+        <v>1365.325461381063</v>
       </c>
       <c r="AB3" t="n">
-        <v>1583.940151044676</v>
+        <v>1868.098530169832</v>
       </c>
       <c r="AC3" t="n">
-        <v>1432.771126102936</v>
+        <v>1689.809828343176</v>
       </c>
       <c r="AD3" t="n">
-        <v>1157644.408257448</v>
+        <v>1365325.461381063</v>
       </c>
       <c r="AE3" t="n">
-        <v>1583940.151044676</v>
+        <v>1868098.530169832</v>
       </c>
       <c r="AF3" t="n">
         <v>4.914508116004905e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>45</v>
+        <v>44.07552083333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1432771.126102936</v>
+        <v>1689809.828343176</v>
       </c>
     </row>
     <row r="4">
@@ -24162,28 +24162,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1060.320624969376</v>
+        <v>1267.93334725543</v>
       </c>
       <c r="AB4" t="n">
-        <v>1450.777457127645</v>
+        <v>1734.842342986306</v>
       </c>
       <c r="AC4" t="n">
-        <v>1312.317292798332</v>
+        <v>1569.271424638213</v>
       </c>
       <c r="AD4" t="n">
-        <v>1060320.624969376</v>
+        <v>1267933.34725543</v>
       </c>
       <c r="AE4" t="n">
-        <v>1450777.457127645</v>
+        <v>1734842.342986305</v>
       </c>
       <c r="AF4" t="n">
         <v>5.12576675760138e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>43</v>
+        <v>42.25911458333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>1312317.292798332</v>
+        <v>1569271.424638213</v>
       </c>
     </row>
   </sheetData>
@@ -24459,28 +24459,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2206.320733843747</v>
+        <v>2512.010737378097</v>
       </c>
       <c r="AB2" t="n">
-        <v>3018.785364046336</v>
+        <v>3437.04391297321</v>
       </c>
       <c r="AC2" t="n">
-        <v>2730.676725793508</v>
+        <v>3109.017265840347</v>
       </c>
       <c r="AD2" t="n">
-        <v>2206320.733843748</v>
+        <v>2512010.737378097</v>
       </c>
       <c r="AE2" t="n">
-        <v>3018785.364046336</v>
+        <v>3437043.91297321</v>
       </c>
       <c r="AF2" t="n">
         <v>3.113487912826705e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>62</v>
+        <v>61.94661458333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>2730676.725793508</v>
+        <v>3109017.265840346</v>
       </c>
     </row>
     <row r="3">
@@ -24565,28 +24565,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1411.603462665445</v>
+        <v>1640.888048025597</v>
       </c>
       <c r="AB3" t="n">
-        <v>1931.418133168448</v>
+        <v>2245.135418180209</v>
       </c>
       <c r="AC3" t="n">
-        <v>1747.086297301225</v>
+        <v>2030.86284493644</v>
       </c>
       <c r="AD3" t="n">
-        <v>1411603.462665445</v>
+        <v>1640888.048025597</v>
       </c>
       <c r="AE3" t="n">
-        <v>1931418.133168448</v>
+        <v>2245135.41818021</v>
       </c>
       <c r="AF3" t="n">
         <v>4.11833577203776e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>47</v>
+        <v>46.82942708333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1747086.297301225</v>
+        <v>2030862.84493644</v>
       </c>
     </row>
     <row r="4">
@@ -24671,28 +24671,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1205.866956705462</v>
+        <v>1425.52826327893</v>
       </c>
       <c r="AB4" t="n">
-        <v>1649.92036925994</v>
+        <v>1950.470659686664</v>
       </c>
       <c r="AC4" t="n">
-        <v>1492.454284895553</v>
+        <v>1764.320477428932</v>
       </c>
       <c r="AD4" t="n">
-        <v>1205866.956705462</v>
+        <v>1425528.26327893</v>
       </c>
       <c r="AE4" t="n">
-        <v>1649920.36925994</v>
+        <v>1950470.659686664</v>
       </c>
       <c r="AF4" t="n">
         <v>4.48656274403049e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>43</v>
+        <v>42.98828125</v>
       </c>
       <c r="AH4" t="n">
-        <v>1492454.284895553</v>
+        <v>1764320.477428932</v>
       </c>
     </row>
     <row r="5">
@@ -24777,28 +24777,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1119.739446535047</v>
+        <v>1320.393353466613</v>
       </c>
       <c r="AB5" t="n">
-        <v>1532.076910167197</v>
+        <v>1806.62043785658</v>
       </c>
       <c r="AC5" t="n">
-        <v>1385.857640144287</v>
+        <v>1634.199118875257</v>
       </c>
       <c r="AD5" t="n">
-        <v>1119739.446535047</v>
+        <v>1320393.353466613</v>
       </c>
       <c r="AE5" t="n">
-        <v>1532076.910167197</v>
+        <v>1806620.43785658</v>
       </c>
       <c r="AF5" t="n">
         <v>4.643273981507685e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>42</v>
+        <v>41.53645833333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>1385857.640144287</v>
+        <v>1634199.118875257</v>
       </c>
     </row>
     <row r="6">
@@ -24883,28 +24883,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1119.432284048292</v>
+        <v>1319.984705753373</v>
       </c>
       <c r="AB6" t="n">
-        <v>1531.656636901766</v>
+        <v>1806.06130802706</v>
       </c>
       <c r="AC6" t="n">
-        <v>1385.477477169453</v>
+        <v>1633.693351611923</v>
       </c>
       <c r="AD6" t="n">
-        <v>1119432.284048292</v>
+        <v>1319984.705753373</v>
       </c>
       <c r="AE6" t="n">
-        <v>1531656.636901767</v>
+        <v>1806061.30802706</v>
       </c>
       <c r="AF6" t="n">
         <v>4.64979127304738e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>42</v>
+        <v>41.47786458333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>1385477.477169453</v>
+        <v>1633693.351611923</v>
       </c>
     </row>
   </sheetData>
